--- a/biology/Botanique/Berberis_julianae/Berberis_julianae.xlsx
+++ b/biology/Botanique/Berberis_julianae/Berberis_julianae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épine-vinette de Juliana, (Berberis julianae), est un arbuste épineux du genre Berberis, de la famille des Berberidaceae, originaire de Chine.
 Cette espèce a été dédiée par le botaniste autrichien Camillo Karl Schneider à sa femme.
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un buisson dense et persistant, mesurant jusqu'à 2,5 m de haut.
 Les feuilles sont coriaces, épaisses, réunies en fascicules alternes de couleur vert foncé, de 5 à 8 cm de long, aux bords épineux. Les branches portent de fortes épines trifurquées (3-4,5cm)
@@ -552,7 +566,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'agit d'une plante cultivée pour former des haies défensives et persistantes, assez répandue en France. Des variétés horticoles ont été créées comme « Nana » (de 90 à 120 cm), « Spring Glory » au feuillage bronze. Elle a aussi servi à produire des hybrides, notamment Berberis × mentorensis.
 Cette espèce peut aussi se cultiver en bonsaï.
